--- a/plantillas/UT_Avance.xlsx
+++ b/plantillas/UT_Avance.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB6DA4-D2D0-4FDC-89F2-6E8C5E5C6974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5011F-4683-4248-9658-ABC5DF138C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -166,13 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,10 +518,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,101 +531,94 @@
     <col min="7" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="9" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="9" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -638,26 +626,26 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -668,30 +656,4 @@
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>